--- a/output/google_maps_data_Penginapan_Bantul.xlsx
+++ b/output/google_maps_data_Penginapan_Bantul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -507,25 +502,24 @@
           <t>0811-2646-412</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.7</v>
+        <v>-7.885947</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.885947</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.321184</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bahagia+Sederhana+Homestay/@-7.8859472,110.2490857,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7aff4c42a647bf:0xdf9e1291833d4a5f!5m2!4m1!1i2!8m2!3d-7.8859472!4d110.3211835!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11fjbksn1n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -544,25 +538,24 @@
           <t>(021) 80629666</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.5</v>
+        <v>-7.867001</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.867001</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.340901</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Omah+Cepit/@-7.8859472,110.2490857,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a579591107aa9:0x5c9e6e6fe7331c77!5m2!4m1!1i2!8m2!3d-7.8670012!4d110.340901!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11fkqzmdfj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Omah+Cepit/@-7.8859472,110.2490857,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a579591107aa9:0x5c9e6e6fe7331c77!5m2!4m1!1i2!8m2!3d-7.8670012!4d110.340901!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11fkqzmdfj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>1 hari lalu di 
 Google</t>
@@ -586,25 +579,24 @@
           <t>0819-0555-5662</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.4</v>
+        <v>-7.852238</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.852238</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.318458</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Astuti+Gallery+Homestay/@-7.8859472,110.2490857,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af861cfe3c539:0xb29689223ba9453c!5m2!4m1!1i2!8m2!3d-7.8522377!4d110.318458!15sChFQZW5naW5hcGFuIEJhbnR1bJIBB2xvZGdpbmfgAQA!16s%2Fg%2F11xglpfdw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -627,25 +619,24 @@
           <t>0857-9947-2589</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.4</v>
+        <v>-7.845627</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.845627</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.313443</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Blue+Garden+Yogyakarta/@-7.8859472,110.2490857,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af88ea5f1c065:0x5e9d72fe1fce0b40!5m2!4m1!1i2!8m2!3d-7.8456271!4d110.3134428!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11cmxz95vw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -664,25 +655,24 @@
           <t>(0274) 6463148</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.6</v>
+        <v>-7.872745</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.872745</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.354564</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Omah+Tembi+Homestay/@-7.8859472,110.2490857,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a560cb504c123:0x5d76a0e9229f3a42!5m2!4m1!1i2!8m2!3d-7.8727455!4d110.3545642!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F1pzywnr6s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Omah+Tembi+Homestay/@-7.8859472,110.2490857,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a560cb504c123:0x5d76a0e9229f3a42!5m2!4m1!1i2!8m2!3d-7.8727455!4d110.3545642!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F1pzywnr6s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>6 hari lalu di 
 Google</t>
@@ -710,25 +700,24 @@
           <t>0812-2416-1110</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.6</v>
+        <v>-7.840178</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.840178</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.287045</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/RAJAKLANA+Resort+And+Spa+Jogja/@-7.8401782,110.2149472,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af84dbfef4183:0xfe33085a16aaa4d8!5m2!4m1!1i2!8m2!3d-7.8401782!4d110.287045!15sChFQZW5naW5hcGFuIEJhbnR1bJIBDHJlc29ydF9ob3RlbOABAA!16s%2Fg%2F11ddxcpv1s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -747,25 +736,24 @@
           <t>0877-8636-4656</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.3</v>
+        <v>-7.84274</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.84274</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.31545</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Villa+Alas+Adem/@-7.8401782,110.2149472,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9006b6b7e09:0x10f6c4e6d72e5ce6!5m2!4m1!1i2!8m2!3d-7.8427404!4d110.3154497!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11vxyyt7_2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Alas+Adem/@-7.8401782,110.2149472,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9006b6b7e09:0x10f6c4e6d72e5ce6!5m2!4m1!1i2!8m2!3d-7.8427404!4d110.3154497!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11vxyyt7_2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>6 hari lalu di 
 Google</t>
@@ -793,25 +781,24 @@
           <t>0895-3913-53639</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.9</v>
+        <v>-7.903674</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.903674</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.32499</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Homestay+Rumah+Bahagia+Cepor/@-7.9036742,110.2528918,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7aff1694df167d:0x921687efbbf051d4!5m2!4m1!1i2!8m2!3d-7.9036742!4d110.3249896!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11t3gtsx10?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Homestay+Rumah+Bahagia+Cepor/@-7.9036742,110.2528918,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7aff1694df167d:0x921687efbbf051d4!5m2!4m1!1i2!8m2!3d-7.9036742!4d110.3249896!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11t3gtsx10?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>2 minggu lalu di 
 Google</t>
@@ -835,25 +822,24 @@
           <t>0852-8232-3455</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.4</v>
+        <v>-7.885021</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.885021</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.323843</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Homestay+Syariah+Bantul/@-7.9036742,110.2528918,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7aff69014dff01:0xf31d5d031bd58cf3!5m2!4m1!1i2!8m2!3d-7.8850208!4d110.3238434!15sChFQZW5naW5hcGFuIEJhbnR1bJIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11y3n6_l0d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -876,25 +862,24 @@
           <t>0896-7391-1991</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.9</v>
+        <v>-7.841756</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.841756</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.319732</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Villa+Sare/@-7.8417564,110.247634,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af93575ad3cdb:0x55dcb5201be9669b!5m2!4m1!1i2!8m2!3d-7.8417564!4d110.3197318!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11vb8pk026?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Sare/@-7.8417564,110.247634,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af93575ad3cdb:0x55dcb5201be9669b!5m2!4m1!1i2!8m2!3d-7.8417564!4d110.3197318!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11vb8pk026?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -918,25 +903,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.7</v>
+        <v>-7.894776</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.894776</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.322479</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Wisma+Sanggrahan+Syariah+Yogyakarta/@-7.8417564,110.247634,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7aff5ba1653e3b:0xe07845f6658b09d8!5m2!4m1!1i2!8m2!3d-7.8947763!4d110.3224785!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11f_4rxdqc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Wisma+Sanggrahan+Syariah+Yogyakarta/@-7.8417564,110.247634,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7aff5ba1653e3b:0xe07845f6658b09d8!5m2!4m1!1i2!8m2!3d-7.8947763!4d110.3224785!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11f_4rxdqc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>3 bulan lalu di 
 Google</t>
@@ -964,25 +948,24 @@
           <t>0899-5677-388</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.5</v>
+        <v>-7.871495</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.871495</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.353484</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/dOmah+Yogya+Hotel/@-7.8417564,110.247634,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a560c85870133:0x7c75149ee345d6ff!5m2!4m1!1i2!8m2!3d-7.8714954!4d110.3534843!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F1vh8mg78?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1005,25 +988,24 @@
           <t>0813-9213-3205</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.8</v>
+        <v>-7.872602</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.872602</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.354656</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Homestay-Tembi/@-7.8417564,110.247634,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a57c1398c9553:0x4a4bd0e6f2974de!5m2!4m1!1i2!8m2!3d-7.8726022!4d110.3546561!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11vzf2yqr2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1046,25 +1028,24 @@
           <t>0821-9005-9168</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.7</v>
+        <v>-7.873705</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.873705</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.35389</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Yukke+Tembi+Homestay/@-7.8417564,110.247634,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a571b134f5267:0x14773e6e666a8081!5m2!4m1!1i2!8m2!3d-7.8737054!4d110.35389!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11txhlq1d8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1083,25 +1064,24 @@
           <t>0813-2753-1407</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.6</v>
+        <v>-7.841999</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.841999</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.322738</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Villa+Kayu+Jogja/@-7.8417564,110.247634,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9ead3a08ae3:0x9b8b02b0037ddae8!5m2!4m1!1i2!8m2!3d-7.8419995!4d110.3227379!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11h3qrl4q7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Kayu+Jogja/@-7.8417564,110.247634,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9ead3a08ae3:0x9b8b02b0037ddae8!5m2!4m1!1i2!8m2!3d-7.8419995!4d110.3227379!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11h3qrl4q7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>2 minggu lalu di 
 Google</t>
@@ -1129,25 +1109,24 @@
           <t>0853-2626-6868</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.4</v>
+        <v>-7.860672</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.860672</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.297899</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dewisri+Homestay/@-7.8417564,110.247634,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9bdffbe53a3:0x46923f27ac321f53!5m2!4m1!1i2!8m2!3d-7.8606717!4d110.2978994!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11qnljxlw_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dewisri+Homestay/@-7.8417564,110.247634,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9bdffbe53a3:0x46923f27ac321f53!5m2!4m1!1i2!8m2!3d-7.8606717!4d110.2978994!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11qnljxlw_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>6 bulan lalu di 
 Google</t>
@@ -1175,25 +1154,24 @@
           <t>0823-2341-4406</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.9</v>
+        <v>-7.867192</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.867192</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.317045</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Amartha+Indotama+Guest+House/@-7.8417564,110.247634,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9926bfa7fdf:0xfaee025c7b82d774!5m2!4m1!1i2!8m2!3d-7.8671923!4d110.3170448!15sChFQZW5naW5hcGFuIEJhbnR1bJIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11q57tds6d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1212,25 +1190,24 @@
           <t>0857-9934-6472</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.5</v>
+        <v>-7.857009</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.857009</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.401201</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pendopo+Kayuwanan+Homestay+Syariah+near+terminal+Giwangan/@-7.8570086,110.3291033,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a56954403e55b:0x699415cd5a65fd9!5m2!4m1!1i2!8m2!3d-7.8570086!4d110.4012011!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11f3n2b7j1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1249,25 +1226,24 @@
           <t>0815-7885-1954</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.8</v>
+        <v>-7.83728</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.83728</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.320333</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Rumah+Paron+Homestay/@-7.8372801,110.2482356,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af94f1273922b:0x5c6caa39742ce6a2!5m2!4m1!1i2!8m2!3d-7.8372801!4d110.3203334!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11qby2twb0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1290,25 +1266,24 @@
           <t>0812-2620-9870</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.9</v>
+        <v>-7.855324</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.855324</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.283503</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Omah+Ndoro+SugihArti/@-7.8553241,110.2114055,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9df0d515ae1:0xebd8104262561b17!5m2!4m1!1i2!8m2!3d-7.8553241!4d110.2835033!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11kq68f_w9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1331,25 +1306,24 @@
           <t>0817-7529-3332</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>5</v>
+      </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>-7.860847</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.860847</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.29543</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Homestay+dan+Batik+erlangga/@-7.8553241,110.2114055,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af93ee3bff08f:0x9f83d96db2b2f53!5m2!4m1!1i2!8m2!3d-7.8608468!4d110.2954301!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBmhvc3RlbOABAA!16s%2Fg%2F11nnh542yx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1368,25 +1342,24 @@
           <t>0815-7885-1954</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.8</v>
+        <v>-7.83728</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.83728</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.320333</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rumah+Paron+Homestay/@-7.8372801,110.2482356,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af94f1273922b:0x5c6caa39742ce6a2!5m2!4m1!1i2!8m2!3d-7.8372801!4d110.3203334!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11qby2twb0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rumah+Paron+Homestay/@-7.8372801,110.2482356,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af94f1273922b:0x5c6caa39742ce6a2!5m2!4m1!1i2!8m2!3d-7.8372801!4d110.3203334!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11qby2twb0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>10 bulan lalu di 
 Google</t>
@@ -1410,25 +1383,24 @@
           <t>0822-2700-0302</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F24" t="n">
-        <v>3.8</v>
+        <v>-7.890756</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.890756</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.328858</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kos+putra%2Fputri+Liaolin/@-7.8372801,110.2482356,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7aff99eb8bcb31:0x3393348679e82935!5m2!4m1!1i2!8m2!3d-7.8907556!4d110.3288578!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11t5d1325l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1447,25 +1419,24 @@
           <t>0821-3880-9441</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.9</v>
+        <v>-7.863287</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.863287</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.349278</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/D+Bamboo+House/@-7.8372801,110.2482356,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a57e05cee6277:0x164e1c9a07500968!5m2!4m1!1i2!8m2!3d-7.8632866!4d110.3492777!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11mx_54rjz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1488,25 +1459,24 @@
           <t>0857-4374-2289</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>5</v>
+      </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>-7.836001</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.836001</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.306157</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Yustien+Homestay+Jogja/@-7.8372801,110.2482356,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af922d0dc218d:0x8df3a2a21b1a9432!5m2!4m1!1i2!8m2!3d-7.8360013!4d110.3061571!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11y8zvdy7v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Yustien+Homestay+Jogja/@-7.8372801,110.2482356,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af922d0dc218d:0x8df3a2a21b1a9432!5m2!4m1!1i2!8m2!3d-7.8360013!4d110.3061571!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11y8zvdy7v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>1 jam lalu di 
 Google</t>
@@ -1530,25 +1500,24 @@
           <t>0811-296-533</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F27" t="n">
-        <v>3.9</v>
+        <v>-7.90487</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.90487</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.34508</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Homestay+Omah+Putih/@-7.9048704,110.2729818,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a557c6427d841:0x6c5096e829b59364!5m2!4m1!1i2!8m2!3d-7.9048704!4d110.3450796!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11ssjn87yj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Homestay+Omah+Putih/@-7.9048704,110.2729818,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a557c6427d841:0x6c5096e829b59364!5m2!4m1!1i2!8m2!3d-7.9048704!4d110.3450796!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11ssjn87yj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>7 bulan lalu di 
 Google</t>
@@ -1576,25 +1545,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.5</v>
+        <v>-7.844063</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.844063</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.327563</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Budi+Bambu+Homestay+Yogyakarta+Bangunjiwo+RedPartner/@-7.8440625,110.2554647,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af955f54183bd:0x7f8afd28b60bdb97!5m2!4m1!1i2!8m2!3d-7.8440625!4d110.3275625!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11q22q7r64?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Budi+Bambu+Homestay+Yogyakarta+Bangunjiwo+RedPartner/@-7.8440625,110.2554647,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af955f54183bd:0x7f8afd28b60bdb97!5m2!4m1!1i2!8m2!3d-7.8440625!4d110.3275625!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11q22q7r64?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>3 minggu lalu di 
 Google</t>
@@ -1618,25 +1586,24 @@
           <t>0812-1134-2889</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>5</v>
+      </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>-7.843934</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.843934</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.313696</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Rindoe+Jogja+Holiday+Home/@-7.8440625,110.2554647,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af911c6ab5515:0x8f13e9f7e726825b!5m2!4m1!1i2!8m2!3d-7.8439342!4d110.3136956!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11kjgc2kk6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1659,25 +1626,24 @@
           <t>(021) 29707601</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4</v>
+      </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>-7.917822</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.917822</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.370989</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/OYO+2047+Opak+Village+Bed+%26+Breakfast/@-7.9178216,110.2988911,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a55a99512a77f:0x90df051ac50a06d8!5m2!4m1!1i2!8m2!3d-7.9178216!4d110.3709889!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11gf8ggvlt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1700,25 +1666,24 @@
           <t>0821-3306-2703</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>5</v>
+      </c>
       <c r="F31" t="n">
-        <v>5</v>
+        <v>-7.915695</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.915695</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.397202</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sri-Ga%C3%AFa+Yogyakarta/@-7.9178216,110.2988911,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a545f263a42a5:0x81100f1e06618f25!5m2!4m1!1i2!8m2!3d-7.9156955!4d110.3972022!15sChFQZW5naW5hcGFuIEJhbnR1bJIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11c6_zxd4j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sri-Ga%C3%AFa+Yogyakarta/@-7.9178216,110.2988911,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a545f263a42a5:0x81100f1e06618f25!5m2!4m1!1i2!8m2!3d-7.9156955!4d110.3972022!15sChFQZW5naW5hcGFuIEJhbnR1bJIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11c6_zxd4j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>1 hari lalu di 
 Google</t>
@@ -1746,25 +1711,24 @@
           <t>0895-3449-19000</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.7</v>
+        <v>-7.839233</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.839233</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.358038</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bedhot+Homestay/@-7.8392331,110.2859404,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a564b1c17c5cf:0x6c68e2655d67535c!5m2!4m1!1i2!8m2!3d-7.8392331!4d110.3580382!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWxvZGdl4AEA!16s%2Fg%2F11bxd94t3j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1787,25 +1751,24 @@
           <t>0812-3140-2025</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.8</v>
+        <v>-7.841767</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.841767</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.321376</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Villa+Jogja+Senang/@-7.8417673,110.2492784,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af94d49c712d9:0x7f25941b984e99a!5m2!4m1!1i2!8m2!3d-7.8417673!4d110.3213762!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11rdbd3n_9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Jogja+Senang/@-7.8417673,110.2492784,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af94d49c712d9:0x7f25941b984e99a!5m2!4m1!1i2!8m2!3d-7.8417673!4d110.3213762!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11rdbd3n_9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>2 hari lalu di 
 Google</t>
@@ -1834,22 +1797,21 @@
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>-7.87041</v>
+      </c>
       <c r="G34" t="n">
-        <v>-7.87041</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.323737</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/CAMPING+GROUND+GUNUNG+MIJIL+HILS/@-7.8417673,110.2492784,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af8af5f3ad74b:0x852c794209554577!5m2!4m1!1i2!8m2!3d-7.8704097!4d110.3237372!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEWJlZF9hbmRfYnJlYWtmYXN04AEA!16s%2Fg%2F11t25lwk_1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1872,25 +1834,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>5</v>
+      </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>-7.840207</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.840207</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.318018</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/The+Lavana+Greenkhaza+Villa+Jogja/@-7.8417673,110.2492784,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9205ad1170d:0x7ebf92b608db181!5m2!4m1!1i2!8m2!3d-7.8402067!4d110.3180176!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11s930clnk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/The+Lavana+Greenkhaza+Villa+Jogja/@-7.8417673,110.2492784,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9205ad1170d:0x7ebf92b608db181!5m2!4m1!1i2!8m2!3d-7.8402067!4d110.3180176!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11s930clnk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>2 tahun lalu di 
 Google</t>
@@ -1914,25 +1875,24 @@
           <t>0813-2987-1559</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.8</v>
+        <v>-7.841313</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.841313</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.317116</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/nextdoor+nature/@-7.8417673,110.2492784,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af906d74881a9:0x59f26ffaae497245!5m2!4m1!1i2!8m2!3d-7.8413133!4d110.3171164!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11jcl7w0m1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1951,25 +1911,24 @@
           <t>0812-6840-1910</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.8</v>
+        <v>-7.861297</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.861297</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.331035</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/JOGLOPARI+Guesthouse+(Bukan+utk+pasangan+non-pasutri)/@-7.8417673,110.2492784,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a5767e09fc2bf:0x2f0b9944bdb2caab!5m2!4m1!1i2!8m2!3d-7.8612973!4d110.3310348!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11h__jtcl5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/JOGLOPARI+Guesthouse+(Bukan+utk+pasangan+non-pasutri)/@-7.8417673,110.2492784,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a5767e09fc2bf:0x2f0b9944bdb2caab!5m2!4m1!1i2!8m2!3d-7.8612973!4d110.3310348!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11h__jtcl5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>2 bulan lalu di 
 Google</t>
@@ -1989,25 +1948,24 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>5</v>
+      </c>
       <c r="F38" t="n">
-        <v>5</v>
+        <v>-7.871438</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.871438</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.375387</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Homestay+Gloria/@-7.871438,110.3032889,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a573565269357:0x7611134ab670769b!5m2!4m1!1i2!8m2!3d-7.871438!4d110.3753867!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11sw0fm3jn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2030,25 +1988,24 @@
           <t>(0274) 6461251</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.7</v>
+        <v>-7.840495</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.840495</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.318127</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Grand+Bale+Home+%26+Resort/@-7.8404952,110.2460296,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af888107569a7:0x1cf2530b2f3cecab!5m2!4m1!1i2!8m2!3d-7.8404952!4d110.3181274!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11gfp300l4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2071,25 +2028,24 @@
           <t>0882-3201-8197</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>5</v>
+      </c>
       <c r="F40" t="n">
-        <v>5</v>
+        <v>-7.879254</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.879254</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.336875</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/EDHOST+D'CASTILLO/@-7.8404952,110.2460296,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a5784f5641d17:0xed7ac26087beff1e!5m2!4m1!1i2!8m2!3d-7.8792545!4d110.3368749!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11h890wlhy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/EDHOST+D'CASTILLO/@-7.8404952,110.2460296,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a5784f5641d17:0xed7ac26087beff1e!5m2!4m1!1i2!8m2!3d-7.8792545!4d110.3368749!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11h890wlhy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>2 bulan lalu di 
 Google</t>
@@ -2117,25 +2073,24 @@
           <t>0821-1001-2526</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>5</v>
+      </c>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>-7.838312</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.838312</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.310444</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Casa+Djiwa/@-7.8404952,110.2460296,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af986115fd0c3:0x730cb6f5b65d7b5e!5m2!4m1!1i2!8m2!3d-7.838312!4d110.3104444!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11pv4w6khx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Casa+Djiwa/@-7.8404952,110.2460296,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af986115fd0c3:0x730cb6f5b65d7b5e!5m2!4m1!1i2!8m2!3d-7.838312!4d110.3104444!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11pv4w6khx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>sebulan lalu di 
 Google</t>
@@ -2159,25 +2114,24 @@
           <t>0817-788-016</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>3</v>
+      </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>-7.870036</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.870036</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.390963</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/OYO+93396+Pondok+Wisata+Sri+Mulyo/@-7.870036,110.3188652,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a569b2e3ae607:0xcc67a109cbf9b36!5m2!4m1!1i2!8m2!3d-7.870036!4d110.390963!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11vs3l0j11?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/OYO+93396+Pondok+Wisata+Sri+Mulyo/@-7.870036,110.3188652,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a569b2e3ae607:0xcc67a109cbf9b36!5m2!4m1!1i2!8m2!3d-7.870036!4d110.390963!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11vs3l0j11?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>4 bulan lalu di 
 Google</t>
@@ -2201,25 +2155,24 @@
           <t>0811-296-533</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F43" t="n">
-        <v>4.3</v>
+        <v>-7.840636</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.840636</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.327278</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Lyandra+Villa+by+Aliandra/@-7.840636,110.2551805,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af953cf6d9237:0xfb28796405805472!5m2!4m1!1i2!8m2!3d-7.840636!4d110.3272783!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11txkw4q55?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2242,25 +2195,24 @@
           <t>(021) 29707601</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F44" t="n">
-        <v>3.7</v>
+        <v>-8.023294999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>-8.023294999999999</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.333291</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/OYO+90051+Guest+House+Parangtritis/@-8.0232947,110.2611934,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a5505f89026f7:0xd5c6fe7906ea3fc8!5m2!4m1!1i2!8m2!3d-8.0232947!4d110.3332912!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11m__7n1x7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2279,25 +2231,24 @@
           <t>(0274) 4537753</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F45" t="n">
-        <v>3.9</v>
+        <v>-8.022633000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>-8.022633000000001</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.334172</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Hotel+Family+Syariah/@-8.0232947,110.2611934,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a57ae064315a9:0x5ba23c486a10f5a2!5m2!4m1!1i2!8m2!3d-8.0226328!4d110.3341723!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11cn5x9q3k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Hotel+Family+Syariah/@-8.0232947,110.2611934,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a57ae064315a9:0x5ba23c486a10f5a2!5m2!4m1!1i2!8m2!3d-8.0226328!4d110.3341723!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11cn5x9q3k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -2325,25 +2276,24 @@
           <t>0812-2225-3630</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F46" t="n">
-        <v>4.8</v>
+        <v>-7.860247</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.860247</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.349707</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/The+Zenn+by+Villa+kitta+jogja/@-7.8602475,110.2776088,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a57c8f6392091:0x268581b57e66e0de!5m2!4m1!1i2!8m2!3d-7.8602475!4d110.3497066!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11t_vrl0gp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/The+Zenn+by+Villa+kitta+jogja/@-7.8602475,110.2776088,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a57c8f6392091:0x268581b57e66e0de!5m2!4m1!1i2!8m2!3d-7.8602475!4d110.3497066!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11t_vrl0gp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>2 minggu lalu di 
 Google</t>
@@ -2367,25 +2317,24 @@
           <t>0812-3111-8147</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F47" t="n">
-        <v>4.8</v>
+        <v>-7.875201</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.875201</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.354374</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Huni+Homestay+Tembi/@-7.8602475,110.2776088,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a574b7945077d:0x62fb284f8b8a2a!5m2!4m1!1i2!8m2!3d-7.8752015!4d110.354374!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11nnr_yk7d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Huni+Homestay+Tembi/@-7.8602475,110.2776088,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a574b7945077d:0x62fb284f8b8a2a!5m2!4m1!1i2!8m2!3d-7.8752015!4d110.354374!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11nnr_yk7d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>1 hari lalu di 
 Google</t>
@@ -2409,25 +2358,24 @@
           <t>0818-464-833</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F48" t="n">
-        <v>4.8</v>
+        <v>-7.850859</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.850859</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.322044</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/D'JIPANGAN+HOME/@-7.8602475,110.2776088,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9be8be55f67:0xaed81c16c564b523!5m2!4m1!1i2!8m2!3d-7.8508588!4d110.3220443!15sChFQZW5naW5hcGFuIEJhbnR1bJIBDHJlc29ydF9ob3RlbOABAA!16s%2Fg%2F11sjngpwt7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2446,25 +2394,24 @@
           <t>0813-9218-5777</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F49" t="n">
-        <v>4.7</v>
+        <v>-7.866646</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.866646</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.344188</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Omah+Tengah+Sawah+Guest+HOUSE/@-7.8602475,110.2776088,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a56108aa29f91:0xf595dd6bc00c983!5m2!4m1!1i2!8m2!3d-7.8666463!4d110.3441878!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11g1lq8jld?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Omah+Tengah+Sawah+Guest+HOUSE/@-7.8602475,110.2776088,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a56108aa29f91:0xf595dd6bc00c983!5m2!4m1!1i2!8m2!3d-7.8666463!4d110.3441878!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11g1lq8jld?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>2 tahun lalu di 
 Google</t>
@@ -2492,25 +2439,24 @@
           <t>0878-1670-3937</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>5</v>
+      </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>-7.88513</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.88513</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.360547</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kenka_Homestay/@-7.8602475,110.2776088,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a55cf0ae63a5f:0x524c669a4f0ea7cd!5m2!4m1!1i2!8m2!3d-7.8851303!4d110.360547!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11y2pprm87?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2529,25 +2475,24 @@
           <t>0823-2361-9588</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F51" t="n">
-        <v>4.8</v>
+        <v>-8.020683</v>
       </c>
       <c r="G51" t="n">
-        <v>-8.020683</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.334817</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Villa+Joglo+Paris/@-8.0206834,110.2627192,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7bab0055afebb5:0xb2d3781f1d304b97!5m2!4m1!1i2!8m2!3d-8.0206834!4d110.334817!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11vt616lh2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Joglo+Paris/@-8.0206834,110.2627192,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7bab0055afebb5:0xb2d3781f1d304b97!5m2!4m1!1i2!8m2!3d-8.0206834!4d110.334817!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11vt616lh2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>5 hari lalu di 
 Google</t>
@@ -2575,25 +2520,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F52" t="n">
-        <v>3.6</v>
+        <v>-8.02398</v>
       </c>
       <c r="G52" t="n">
-        <v>-8.02398</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.333041</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Hotel+Widodo+1+Parangtritis+Mitra+RedDoorz/@-8.0206834,110.2627192,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7baa7530395913:0x551772e33f12dd8f!5m2!4m1!1i2!8m2!3d-8.0239796!4d110.3330405!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11g8nj1bsb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2616,25 +2560,24 @@
           <t>0813-2825-1219</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F53" t="n">
-        <v>4.7</v>
+        <v>-7.872743</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.872743</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.354465</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kampung+Tembi+Guest+House/@-7.8727428,110.2823667,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a560cb47629af:0xed2b1d162ebfbecf!5m2!4m1!1i2!8m2!3d-7.8727428!4d110.3544645!15sChFQZW5naW5hcGFuIEJhbnR1bJIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11gghcs2mz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2653,25 +2596,24 @@
           <t>0812-1678-4004</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>5</v>
+      </c>
       <c r="F54" t="n">
-        <v>5</v>
+        <v>-7.846822</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.846822</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.32108</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dry+Villa/@-7.8468224,110.2489819,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af90018e6f883:0xf4774214d7585bd!5m2!4m1!1i2!8m2!3d-7.8468224!4d110.3210797!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11vwyks01v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J54" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dry+Villa/@-7.8468224,110.2489819,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af90018e6f883:0xf4774214d7585bd!5m2!4m1!1i2!8m2!3d-7.8468224!4d110.3210797!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11vwyks01v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
         <is>
           <t>6 hari lalu di 
 Google</t>
@@ -2691,25 +2633,24 @@
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F55" t="n">
-        <v>3.9</v>
+        <v>-7.867174</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.867174</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.340905</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Wisma+Mairatu/@-7.8468224,110.2489819,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a561b0eb87427:0x6121f6baf3de00ca!5m2!4m1!1i2!8m2!3d-7.8671736!4d110.3409045!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F1pp2vj87t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J55" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Wisma+Mairatu/@-7.8468224,110.2489819,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a561b0eb87427:0x6121f6baf3de00ca!5m2!4m1!1i2!8m2!3d-7.8671736!4d110.3409045!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F1pp2vj87t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
         <is>
           <t>setahun lalu di 
 Google</t>
@@ -2733,25 +2674,24 @@
           <t>0823-2833-8900</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F56" t="n">
-        <v>4.9</v>
+        <v>-7.840629</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.840629</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.318064</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sun+Moon+Star+Villas/@-7.8468224,110.2489819,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af98d6cdc40d3:0x8b257605215c498a!5m2!4m1!1i2!8m2!3d-7.8406294!4d110.3180637!15sChFQZW5naW5hcGFuIEJhbnR1bJIBB2xvZGdpbmfgAQA!16s%2Fg%2F11fnvycb7l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sun+Moon+Star+Villas/@-7.8468224,110.2489819,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af98d6cdc40d3:0x8b257605215c498a!5m2!4m1!1i2!8m2!3d-7.8406294!4d110.3180637!15sChFQZW5naW5hcGFuIEJhbnR1bJIBB2xvZGdpbmfgAQA!16s%2Fg%2F11fnvycb7l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>sebulan lalu di 
 Google</t>
@@ -2779,25 +2719,24 @@
           <t>0877-9442-7578</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>5</v>
+      </c>
       <c r="F57" t="n">
-        <v>5</v>
+        <v>-7.836659</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.836659</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.295591</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Villa+Graha+Wisesa+2/@-7.8468224,110.2489819,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af90e007fdbd9:0xaabb201caed3fa06!5m2!4m1!1i2!8m2!3d-7.836659!4d110.2955911!15sChFQZW5naW5hcGFuIEJhbnR1bJIBDHJlc29ydF9ob3RlbOABAA!16s%2Fg%2F11h63jrt3z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2820,25 +2759,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>4</v>
+      </c>
       <c r="F58" t="n">
-        <v>4</v>
+        <v>-7.840979</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.840979</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.327157</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Aliandra+Villa+by+The+Lavana/@-7.8468224,110.2489819,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9422327ba69:0xc69291a082b321f4!5m2!4m1!1i2!8m2!3d-7.8409789!4d110.3271574!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11sty211x5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2861,21 +2799,20 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="n">
+      <c r="E59" t="n">
         <v>4</v>
       </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sabrang+huis/@-7.8468224,110.2489819,13z/data=!4m16!1m3!2m2!1sPenginapan+Bantul!6e3!3m11!1s0x2e7af9484be0c60f:0xb3ec92723e455c97!5m2!4m1!1i2!8m2!3d-7.8500078!4d110.3307898!9m1!1b1!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11gsbqxc4j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2898,25 +2835,24 @@
           <t>0813-2516-5289</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F60" t="n">
-        <v>4.6</v>
+        <v>-7.889223</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.889223</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.3497</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Arsya+Homestay/@-7.8468224,110.2489819,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a55aaa6e090eb:0x196f27094eca8ab9!5m2!4m1!1i2!8m2!3d-7.8892234!4d110.3497004!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11rf6lvqxk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2931,25 +2867,24 @@
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F61" t="n">
-        <v>4.9</v>
+        <v>-7.869278</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.869278</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.307528</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Rumah+Pajangan+Jogja/@-7.8468224,110.2489819,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af96f2bd34c47:0x2e093ac3a19e2822!5m2!4m1!1i2!8m2!3d-7.869278!4d110.307528!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWxvZGdl4AEA!16s%2Fg%2F11h9p6ljy_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2968,25 +2903,24 @@
           <t>0821-8888-9059</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F62" t="n">
-        <v>4.8</v>
+        <v>-7.882527</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.882527</v>
-      </c>
-      <c r="H62" t="n">
         <v>110.356652</v>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/BNB+VILLA+JOGJA+unit+Taru/@-7.8468224,110.2489819,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a55000887a7ef:0xc8afbf14dc196457!5m2!4m1!1i2!8m2!3d-7.8825265!4d110.3566518!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11y2np7n88?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3005,25 +2939,24 @@
           <t>0878-3560-5044</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>5</v>
+      </c>
       <c r="F63" t="n">
-        <v>5</v>
+        <v>-7.841176</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.841176</v>
-      </c>
-      <c r="H63" t="n">
         <v>110.319121</v>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Hello+Belle+Villa/@-7.8468224,110.2489819,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af97eabacce3b:0xa8ade9c1b71b511!5m2!4m1!1i2!8m2!3d-7.8411764!4d110.3191213!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11jsxrbcdf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3042,25 +2975,24 @@
           <t>0878-3560-5044</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F64" t="n">
-        <v>4.6</v>
+        <v>-7.837032</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.837032</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.320406</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Shifana+Home+stay+Syariah/@-7.8468224,110.2489819,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9c3311c2bc7:0x7e1aadc6118420b4!5m2!4m1!1i2!8m2!3d-7.8370316!4d110.3204061!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11smcqjvt_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J64" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Shifana+Home+stay+Syariah/@-7.8468224,110.2489819,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9c3311c2bc7:0x7e1aadc6118420b4!5m2!4m1!1i2!8m2!3d-7.8370316!4d110.3204061!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11smcqjvt_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -3080,25 +3012,24 @@
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F65" t="n">
-        <v>4.9</v>
+        <v>-7.871418</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.871418</v>
-      </c>
-      <c r="H65" t="n">
         <v>110.29249</v>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pajangan+Homestay/@-7.8468224,110.2489819,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af972717a391d:0xbb760200db95b393!5m2!4m1!1i2!8m2!3d-7.8714184!4d110.2924898!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11jzr05cgd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J65" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pajangan+Homestay/@-7.8468224,110.2489819,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af972717a391d:0xbb760200db95b393!5m2!4m1!1i2!8m2!3d-7.8714184!4d110.2924898!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11jzr05cgd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
         <is>
           <t>11 bulan lalu di 
 Google</t>
@@ -3126,25 +3057,24 @@
           <t>0819-0405-5564</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F66" t="n">
-        <v>3.8</v>
+        <v>-8.017637000000001</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.017637000000001</v>
-      </c>
-      <c r="H66" t="n">
         <v>110.325127</v>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Losmen+Alden/@-8.0176368,110.2530294,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7b009ad83c978d:0xc2dbcb7a000ce66!5m2!4m1!1i2!8m2!3d-8.0176368!4d110.3251272!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWxvZGdl4AEA!16s%2Fg%2F11bc7qpsy3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J66" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Losmen+Alden/@-8.0176368,110.2530294,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7b009ad83c978d:0xc2dbcb7a000ce66!5m2!4m1!1i2!8m2!3d-8.0176368!4d110.3251272!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWxvZGdl4AEA!16s%2Fg%2F11bc7qpsy3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
         <is>
           <t>2 minggu lalu di 
 Google</t>
@@ -3168,25 +3098,24 @@
           <t>0857-2962-3254</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F67" t="n">
-        <v>4.3</v>
+        <v>-7.841538</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.841538</v>
-      </c>
-      <c r="H67" t="n">
         <v>110.315061</v>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mbok+Niem+Cafe+and+Cottage/@-7.8415377,110.2429631,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af97b98bd26f3:0x1e99b651d591c7cf!5m2!4m1!1i2!8m2!3d-7.8415377!4d110.3150609!15sChFQZW5naW5hcGFuIEJhbnR1bJIBFWluZG9uZXNpYW5fcmVzdGF1cmFudOABAA!16s%2Fg%2F11rck1v7kb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J67" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mbok+Niem+Cafe+and+Cottage/@-7.8415377,110.2429631,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af97b98bd26f3:0x1e99b651d591c7cf!5m2!4m1!1i2!8m2!3d-7.8415377!4d110.3150609!15sChFQZW5naW5hcGFuIEJhbnR1bJIBFWluZG9uZXNpYW5fcmVzdGF1cmFudOABAA!16s%2Fg%2F11rck1v7kb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
         <is>
           <t>setahun lalu di 
 Google</t>
@@ -3214,25 +3143,24 @@
           <t>0813-2526-6284</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F68" t="n">
-        <v>4.7</v>
+        <v>-7.91697</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.91697</v>
-      </c>
-      <c r="H68" t="n">
         <v>110.319858</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr">
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Homestay+OMAH+REGENG/@-7.9169705,110.2477601,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7aff7f401005c1:0x4d961c012a3cbecf!5m2!4m1!1i2!8m2!3d-7.9169705!4d110.3198579!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWxvZGdl4AEA!16s%2Fg%2F11j90pj7_4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3247,25 +3175,24 @@
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>4</v>
+      </c>
       <c r="F69" t="n">
-        <v>4</v>
+        <v>-7.84293</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.84293</v>
-      </c>
-      <c r="H69" t="n">
         <v>110.285942</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Villa+Saluka/@-7.8429301,110.2138441,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9484e224891:0x21b7ea5befb1040d!5m2!4m1!1i2!8m2!3d-7.8429301!4d110.2859419!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11fnx2fwhn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J69" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Saluka/@-7.8429301,110.2138441,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9484e224891:0x21b7ea5befb1040d!5m2!4m1!1i2!8m2!3d-7.8429301!4d110.2859419!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11fnx2fwhn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
         <is>
           <t>9 bulan lalu di 
 Google</t>
@@ -3285,25 +3212,24 @@
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F70" t="n">
-        <v>4.6</v>
+        <v>-7.839279</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.839279</v>
-      </c>
-      <c r="H70" t="n">
         <v>110.30264</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr">
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/The+Srengenge+Villa/@-7.8429301,110.2138441,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af85f6a630f5d:0xa465591b212436c3!5m2!4m1!1i2!8m2!3d-7.8392792!4d110.3026395!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEWJlZF9hbmRfYnJlYWtmYXN04AEA!16s%2Fg%2F11bxglszb1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3326,25 +3252,24 @@
           <t>0813-2761-1919</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F71" t="n">
-        <v>4.3</v>
+        <v>-7.863918</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.863918</v>
-      </c>
-      <c r="H71" t="n">
         <v>110.349268</v>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr">
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Suwuk+Homestay/@-7.8639182,110.2771699,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a57bc3a6f6389:0x6e6658c2dcb5de33!5m2!4m1!1i2!8m2!3d-7.8639182!4d110.3492677!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11clytlqbt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3367,25 +3292,24 @@
           <t>0878-3962-5925</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F72" t="n">
-        <v>4.5</v>
+        <v>-7.840691</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.840691</v>
-      </c>
-      <c r="H72" t="n">
         <v>110.318463</v>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Villa+Bluesteps/@-7.8639182,110.2771699,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af88875f956a9:0xf83bf94991e32556!5m2!4m1!1i2!8m2!3d-7.8406907!4d110.3184634!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11by_hx6nj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J72" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Bluesteps/@-7.8639182,110.2771699,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af88875f956a9:0xf83bf94991e32556!5m2!4m1!1i2!8m2!3d-7.8406907!4d110.3184634!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11by_hx6nj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -3409,25 +3333,24 @@
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F73" t="n">
-        <v>4.5</v>
+        <v>-7.842857</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.842857</v>
-      </c>
-      <c r="H73" t="n">
         <v>110.315273</v>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr">
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Villa+Kamar+Tamu/@-7.8428567,110.2431756,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9104fe4bc57:0x548c0a3daae0b4cf!5m2!4m1!1i2!8m2!3d-7.8428567!4d110.3152734!15sChFQZW5naW5hcGFuIEJhbnR1bOABAA!16s%2Fg%2F11vk643mkt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3442,25 +3365,24 @@
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>5</v>
+      </c>
       <c r="F74" t="n">
-        <v>5</v>
+        <v>-7.860152</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.860152</v>
-      </c>
-      <c r="H74" t="n">
         <v>110.348205</v>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Villa+Kania/@-7.8428567,110.2431756,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a573f8b1e40df:0xc8fff0ff00d93c89!5m2!4m1!1i2!8m2!3d-7.8601522!4d110.3482052!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11rq1pych3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J74" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Kania/@-7.8428567,110.2431756,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a573f8b1e40df:0xc8fff0ff00d93c89!5m2!4m1!1i2!8m2!3d-7.8601522!4d110.3482052!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11rq1pych3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
         <is>
           <t>3 tahun lalu di 
 Google</t>
@@ -3484,25 +3406,24 @@
           <t>0877-3872-5976</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F75" t="n">
-        <v>4.7</v>
+        <v>-7.838804</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.838804</v>
-      </c>
-      <c r="H75" t="n">
         <v>110.31279</v>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr">
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Waiki+Homestay/@-7.8428567,110.2431756,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af96f5874ec83:0xe8accdff485573bc!5m2!4m1!1i2!8m2!3d-7.8388043!4d110.31279!15sChFQZW5naW5hcGFuIEJhbnR1bJIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11rv1sygfr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3521,25 +3442,24 @@
           <t>0856-4358-6416</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F76" t="n">
-        <v>4.8</v>
+        <v>-7.899897</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.899897</v>
-      </c>
-      <c r="H76" t="n">
         <v>110.380296</v>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr">
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Tedjo+Omah+Ndeso/@-7.8998975,110.3081986,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a55f17357fe67:0xd05ae5ba04c49ba8!5m2!4m1!1i2!8m2!3d-7.8998975!4d110.3802964!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWxvZGdl4AEA!16s%2Fg%2F11gjymrkvc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3562,25 +3482,24 @@
           <t>0811-2651-583</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>5</v>
+      </c>
       <c r="F77" t="n">
-        <v>5</v>
+        <v>-7.860225</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.860225</v>
-      </c>
-      <c r="H77" t="n">
         <v>110.3495</v>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Villa+Namastay+by+Suasana+Villa/@-7.8998975,110.3081986,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a57a714a49ed3:0xf9218683b6bd3468!5m2!4m1!1i2!8m2!3d-7.8602254!4d110.3495002!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11srp9fxg6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J77" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Namastay+by+Suasana+Villa/@-7.8998975,110.3081986,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a57a714a49ed3:0xf9218683b6bd3468!5m2!4m1!1i2!8m2!3d-7.8602254!4d110.3495002!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11srp9fxg6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
         <is>
           <t>3 minggu lalu di 
 Google</t>
@@ -3600,25 +3519,24 @@
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F78" t="n">
-        <v>4.3</v>
+        <v>-7.929185</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.929185</v>
-      </c>
-      <c r="H78" t="n">
         <v>110.349201</v>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Omahndeso+Waroeng+Kopi/@-7.8998975,110.3081986,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a55723d859215:0x82d035c2f57d0de0!5m2!4m1!1i2!8m2!3d-7.9291851!4d110.349201!15sChFQZW5naW5hcGFuIEJhbnR1bJIBC2NvZmZlZV9zaG9w4AEA!16s%2Fg%2F11g8cxm36r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J78" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Omahndeso+Waroeng+Kopi/@-7.8998975,110.3081986,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a55723d859215:0x82d035c2f57d0de0!5m2!4m1!1i2!8m2!3d-7.9291851!4d110.349201!15sChFQZW5naW5hcGFuIEJhbnR1bJIBC2NvZmZlZV9zaG9w4AEA!16s%2Fg%2F11g8cxm36r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
         <is>
           <t>8 bulan lalu di 
 Google</t>
@@ -3646,25 +3564,24 @@
           <t>0878-2145-2444</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F79" t="n">
-        <v>4.5</v>
+        <v>-7.842943</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.842943</v>
-      </c>
-      <c r="H79" t="n">
         <v>110.286549</v>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Villa+Sunset/@-7.8429431,110.2144511,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af8ff092ea027:0x317478a189f87641!5m2!4m1!1i2!8m2!3d-7.8429431!4d110.2865489!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11cjj002dp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J79" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Sunset/@-7.8429431,110.2144511,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af8ff092ea027:0x317478a189f87641!5m2!4m1!1i2!8m2!3d-7.8429431!4d110.2865489!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11cjj002dp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
         <is>
           <t>sebulan lalu di 
 Google</t>
@@ -3692,25 +3609,24 @@
           <t>0822-4234-2866</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>5</v>
+      </c>
       <c r="F80" t="n">
-        <v>5</v>
+        <v>-7.836069</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.836069</v>
-      </c>
-      <c r="H80" t="n">
         <v>110.306851</v>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr">
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Homestay+Griya+Bangunjiwo/@-7.8429431,110.2144511,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9ceb6e32b2f:0xa3f98130ecf9152e!5m2!4m1!1i2!8m2!3d-7.8360686!4d110.3068513!15sChFQZW5naW5hcGFuIEJhbnR1bJIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11sfsfb13r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3725,25 +3641,24 @@
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>5</v>
+      </c>
       <c r="F81" t="n">
-        <v>5</v>
+        <v>-7.925895</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.925895</v>
-      </c>
-      <c r="H81" t="n">
         <v>110.313519</v>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Farmer+House+Inn/@-7.9258952,110.2414212,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7aff885a39e4f1:0x8192e46355bbcdef!5m2!4m1!1i2!8m2!3d-7.9258952!4d110.313519!15sChFQZW5naW5hcGFuIEJhbnR1bJIBA2lubuABAA!16s%2Fg%2F11j7yx05hr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J81" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Farmer+House+Inn/@-7.9258952,110.2414212,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7aff885a39e4f1:0x8192e46355bbcdef!5m2!4m1!1i2!8m2!3d-7.9258952!4d110.313519!15sChFQZW5naW5hcGFuIEJhbnR1bJIBA2lubuABAA!16s%2Fg%2F11j7yx05hr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
         <is>
           <t>4 tahun lalu di 
 Google</t>
@@ -3767,25 +3682,24 @@
           <t>0815-6853-316</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>5</v>
+      </c>
       <c r="F82" t="n">
-        <v>5</v>
+        <v>-7.846351</v>
       </c>
       <c r="G82" t="n">
-        <v>-7.846351</v>
-      </c>
-      <c r="H82" t="n">
         <v>110.392402</v>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Enny+Guest+House/@-7.8463506,110.3203039,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a57dfe6d03267:0xff897ac3c471e1fc!5m2!4m1!1i2!8m2!3d-7.8463506!4d110.3924017!15sChFQZW5naW5hcGFuIEJhbnR1bJIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11kjtpt67c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J82" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Enny+Guest+House/@-7.8463506,110.3203039,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a57dfe6d03267:0xff897ac3c471e1fc!5m2!4m1!1i2!8m2!3d-7.8463506!4d110.3924017!15sChFQZW5naW5hcGFuIEJhbnR1bJIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11kjtpt67c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -3809,25 +3723,24 @@
           <t>0822-2737-1096</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>4</v>
+      </c>
       <c r="F83" t="n">
-        <v>4</v>
+        <v>-7.920388</v>
       </c>
       <c r="G83" t="n">
-        <v>-7.920388</v>
-      </c>
-      <c r="H83" t="n">
         <v>110.289641</v>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr">
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Wisma+Diyan+Indah/@-7.9203875,110.2175428,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7aff745d504961:0xc929ed56aa890cc5!5m2!4m1!1i2!8m2!3d-7.9203875!4d110.2896406!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWxvZGdl4AEA!16s%2Fg%2F11sgqhqxnb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3847,22 +3760,21 @@
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
+      <c r="F84" t="n">
+        <v>-7.923417</v>
+      </c>
       <c r="G84" t="n">
-        <v>-7.923417</v>
-      </c>
-      <c r="H84" t="n">
         <v>110.374629</v>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr">
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Gini+Homestay/@-7.9234175,110.3025311,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a55016dccf013:0xa24693780956beba!5m2!4m1!1i2!8m2!3d-7.9234175!4d110.3746289!15sChFQZW5naW5hcGFuIEJhbnR1bJIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11sct_zy9y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3881,25 +3793,24 @@
           <t>0813-3869-2651</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F85" t="n">
-        <v>4.8</v>
+        <v>-7.841107</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.841107</v>
-      </c>
-      <c r="H85" t="n">
         <v>110.320475</v>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Tropicana+Villa+%26+Sunkiss+Villa/@-7.8411073,110.2483768,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9e281252e2b:0x2c1cadfd1436884e!5m2!4m1!1i2!8m2!3d-7.8411073!4d110.3204746!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11j9jy45lz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J85" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Tropicana+Villa+%26+Sunkiss+Villa/@-7.8411073,110.2483768,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9e281252e2b:0x2c1cadfd1436884e!5m2!4m1!1i2!8m2!3d-7.8411073!4d110.3204746!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBXZpbGxh4AEA!16s%2Fg%2F11j9jy45lz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
         <is>
           <t>6 bulan lalu di 
 Trip.com</t>
@@ -3923,25 +3834,24 @@
           <t>0813-3443-3007</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F86" t="n">
-        <v>4.9</v>
+        <v>-7.839897</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.839897</v>
-      </c>
-      <c r="H86" t="n">
         <v>110.325388</v>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr">
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Dream+Village/@-7.8411073,110.2483768,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9f696620e81:0x69a1e416f48d06aa!5m2!4m1!1i2!8m2!3d-7.8398966!4d110.3253879!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEGNvcnBvcmF0ZV9vZmZpY2XgAQA!16s%2Fg%2F11jg3gpw8w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3957,22 +3867,21 @@
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
+      <c r="F87" t="n">
+        <v>-7.932857</v>
+      </c>
       <c r="G87" t="n">
-        <v>-7.932857</v>
-      </c>
-      <c r="H87" t="n">
         <v>110.368361</v>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr">
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Dibyo+Homestay/@-7.932857,110.2962632,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a55ce86380bc1:0x4e861ddc2a2ef828!5m2!4m1!1i2!8m2!3d-7.932857!4d110.368361!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11rp3bd7xs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3995,25 +3904,24 @@
           <t>0821-3977-6624</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="n">
+        <v>5</v>
+      </c>
       <c r="F88" t="n">
-        <v>5</v>
+        <v>-7.940034</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.940034</v>
-      </c>
-      <c r="H88" t="n">
         <v>110.361266</v>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Simbok+Sireng+Homestay/@-7.932857,110.2962632,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a55b6ffb3a311:0xd95ac4c698481557!5m2!4m1!1i2!8m2!3d-7.9400343!4d110.3612659!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11h941y9w7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J88" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Simbok+Sireng+Homestay/@-7.932857,110.2962632,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a55b6ffb3a311:0xd95ac4c698481557!5m2!4m1!1i2!8m2!3d-7.9400343!4d110.3612659!15sChFQZW5naW5hcGFuIEJhbnR1bJIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11h941y9w7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
         <is>
           <t>10 bulan lalu di 
 Google</t>
@@ -4042,22 +3950,21 @@
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>-7.860162</v>
+      </c>
       <c r="G89" t="n">
-        <v>-7.860162</v>
-      </c>
-      <c r="H89" t="n">
         <v>110.293647</v>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr">
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Homestay+Miftah/@-7.8601623,110.2215492,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af9ec3319a683:0x86cf7ead06c9e8e8!5m2!4m1!1i2!8m2!3d-7.8601623!4d110.293647!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11lg90tqwn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4076,21 +3983,20 @@
           <t>0812-2960-519</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="n">
+      <c r="E90" t="n">
         <v>4.3</v>
       </c>
+      <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr">
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/de%CC%85%CC%B2+Soewarna+Homestay/@-7.8368056,110.292835,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7a57b2c80daebf:0x723a6a318470ecbf!5m2!4m1!1i2!8m2!3d-7.8368056!4d110.3649328!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11c5824xx8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4110,22 +4016,21 @@
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
+      <c r="F91" t="n">
+        <v>-7.864172</v>
+      </c>
       <c r="G91" t="n">
-        <v>-7.864172</v>
-      </c>
-      <c r="H91" t="n">
         <v>110.293735</v>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr">
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/DS+Homestay+Krebet/@-7.8641723,110.2216369,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af8dcdfb08083:0x1a8846fbab17c30c!5m2!4m1!1i2!8m2!3d-7.8641723!4d110.2937347!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBWhvdGVs4AEA!16s%2Fg%2F11tjjgf9nw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4145,22 +4050,21 @@
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>-7.862897</v>
+      </c>
       <c r="G92" t="n">
-        <v>-7.862897</v>
-      </c>
-      <c r="H92" t="n">
         <v>110.29453</v>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr">
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Argosari+Homestay/@-7.8641723,110.2216369,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af8dd36df7d51:0xca63a138e1da907b!5m2!4m1!1i2!8m2!3d-7.8628975!4d110.2945303!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBmhvc3RlbOABAA!16s%2Fg%2F11p5_j65pj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4180,22 +4084,21 @@
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
+      <c r="F93" t="n">
+        <v>-7.862897</v>
+      </c>
       <c r="G93" t="n">
-        <v>-7.862897</v>
-      </c>
-      <c r="H93" t="n">
         <v>110.29453</v>
       </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr">
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Argosari+Homestay/@-7.8641723,110.2216369,13z/data=!4m14!1m3!2m2!1sPenginapan+Bantul!6e3!3m9!1s0x2e7af8dd36df7d51:0xca63a138e1da907b!5m2!4m1!1i2!8m2!3d-7.8628975!4d110.2945303!15sChFQZW5naW5hcGFuIEJhbnR1bJIBBmhvc3RlbOABAA!16s%2Fg%2F11p5_j65pj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
